--- a/FrauEngine/フラウシナリオ.xlsx
+++ b/FrauEngine/フラウシナリオ.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618EC4CA-97BC-439D-8CDF-2E046B637A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B19E01-B88A-4489-941D-58186DEDB10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E14B66FA-2D44-43E5-928D-413CA3251068}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E14B66FA-2D44-43E5-928D-413CA3251068}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Start" sheetId="1" r:id="rId1"/>
+    <sheet name="HappyEnd" sheetId="2" r:id="rId2"/>
+    <sheet name="BadEnd" sheetId="3" r:id="rId3"/>
+    <sheet name="マジックショップ＿初めての来店" sheetId="4" r:id="rId4"/>
+    <sheet name="ハンディショップ＿初めての来店" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="120">
   <si>
     <t>キャラ名</t>
     <rPh sb="3" eb="4">
@@ -775,6 +779,171 @@
       <t>グタイテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラウ</t>
+  </si>
+  <si>
+    <t>お　わ　り　（ハッピーエンド　フラウの花束）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこで花束を買った人は幸せになるといわれています</t>
+  </si>
+  <si>
+    <t>フラウの頑張りでお店は大人気になり、今では</t>
+  </si>
+  <si>
+    <t>もちろん、私のおごりで!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばあちゃんも一緒に連れていきます</t>
+  </si>
+  <si>
+    <t>じゃあ今度ゆっくりお茶にでも行きましょう</t>
+  </si>
+  <si>
+    <t>アハハ、友達の孫からお金は取れないよ</t>
+  </si>
+  <si>
+    <t>そんな！いいんですか！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だから稼いだお金は好きに使いな</t>
+  </si>
+  <si>
+    <t>あれは植物の成長を促す代わりに</t>
+  </si>
+  <si>
+    <t>人の成長度合いが低いと呪いをかける代物だったんだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そういえばプランターのお金はいらないよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんな、他人事みたいに言わないでください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でもよかったじゃないか、こんなに繁盛して</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごめんね、人混みは苦手なんだ</t>
+  </si>
+  <si>
+    <t>どうやらそのようだね、ちょっと繁盛しすぎじゃないかな？</t>
+  </si>
+  <si>
+    <t>フラウ、お店の調子はどうだいって、、、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忙しすぎてプランターの数も足りないですよ</t>
+    <rPh sb="0" eb="1">
+      <t>イソガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラウ、今日が返済の最終日だがどうだい？</t>
+  </si>
+  <si>
+    <t>、、、あっ、シンディさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あー、その調子だともしかして、、、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごべんなざい、おがね集まんながっだです</t>
+  </si>
+  <si>
+    <t>今回稼いだお金はその解呪費用に使うといいよ</t>
+  </si>
+  <si>
+    <t>もしかしてそれまで私このままですか？</t>
+  </si>
+  <si>
+    <t>アイタッ！アイタッ！地味に痛いよ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まー頑張りな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わーん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お　わ　り　（バッドエンド　タンスの呪い）</t>
+  </si>
+  <si>
+    <t>フラウは一所懸命に頑張りましたが残念ながら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100万ラウをためることができませんでした</t>
+  </si>
+  <si>
+    <t>えー！！じゃあ私もしかして一生タンスに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小指をぶつける人生ですか！？</t>
+  </si>
+  <si>
+    <t>お金はいいんだけど、そのー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪いのほうはどうにもならないかも</t>
+  </si>
+  <si>
+    <t>そんなぁ、アイタッ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふぇ～タンスが追いかけてくるよ～</t>
+  </si>
+  <si>
+    <t>私の友達に解呪の魔法に詳しい魔女がいるから紹介するよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そしてそこから解呪までの一週間ほどフラウは花屋を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いとなみながら小指の痛みと戦うのでした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すみません！クリスタさん！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっとお店が忙しすぎで手が離せそうにないです！</t>
+  </si>
+  <si>
+    <t>プランターのお金は今度持っていくので</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと手伝ってください</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C30D4-2BBA-41D6-92ED-9E849BF0AD5F}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1153,6 +1322,1126 @@
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F01C662-F8EE-4F4D-8BA4-293CEF11D3ED}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="72.625" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C244B-4DED-4996-A10E-6BC5E835F7CE}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="85.25" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144242F6-F118-4F2F-A456-29EE4170FA05}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -1166,502 +2455,68 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41524BB0-EB50-46C4-A074-3EA1998BC037}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FrauEngine/フラウシナリオ.xlsx
+++ b/FrauEngine/フラウシナリオ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\FrauEngine\FrauEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B19E01-B88A-4489-941D-58186DEDB10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB116BB4-E537-4247-8BDE-6356A76F7957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E14B66FA-2D44-43E5-928D-413CA3251068}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E14B66FA-2D44-43E5-928D-413CA3251068}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="156">
   <si>
     <t>キャラ名</t>
     <rPh sb="3" eb="4">
@@ -944,6 +944,144 @@
   </si>
   <si>
     <t>ちょっと手伝ってください</t>
+  </si>
+  <si>
+    <t>フラウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらっしゃい、よくきたね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちわ、クリスタさん</t>
+  </si>
+  <si>
+    <t>あのフラスコも一見普通のポーションなんだがとても</t>
+  </si>
+  <si>
+    <t>あ、ああー！そういえばこのお店では何を取り扱ってるんですか？</t>
+  </si>
+  <si>
+    <t>あの本もとても貴重なもので、魔女の間では持ってるだけで敬われる代物なんだ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああ、ごめんごめん。少し熱くなってしまったみたいだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうだね、うちではマジックアイテムや本を取り扱ってるよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランターもあるから収入を上げたいなら,何よりも先に買うべきだね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本は植物の交配について知れるかもね,経営に行き詰まったら買うといいよ</t>
+  </si>
+  <si>
+    <t>あー、ちなみにうちのアイテムは全部貴重なものだから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫がなくなったり金額が高くなったりするけど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこはご愛嬌ってことで</t>
+  </si>
+  <si>
+    <t>あらためて、いらっしゃいませ、フラウ</t>
+  </si>
+  <si>
+    <t>なんだか不思議で素敵なお店ですね</t>
+    <rPh sb="8" eb="10">
+      <t>ステキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（見たことないものばっかりだけどすごく散らかっている気がする、、、）</t>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうだろう!いいだろう！とくにあの窯は取り寄せるのに苦労したんだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンディ</t>
+  </si>
+  <si>
+    <t>いらっしゃいませ、、、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家の近くお店だったけど一人で来るのは初めてだな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よく見たら変なものばっかりおいてる、あはは！</t>
+  </si>
+  <si>
+    <t>これは変なものじゃない、、、ねこだるま,あと、売り物でもない</t>
+  </si>
+  <si>
+    <t>わたしはハンディ、、ここの店主</t>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ところで何をお探しで？、、、おじょうさん？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はフラウだよ、近くで花屋をやってるんだけど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花の種が足りなくて困ってるの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種なら結構ある、、うちは品ぞろえはいいほう</t>
+  </si>
+  <si>
+    <t>わあ、すごいね！いっぱい種類があるんだ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、、、いっぱい買ってって</t>
+  </si>
+  <si>
+    <t>ハンディ＿ふつう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンディ＿こまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンディ＿びっくり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンディ＿えがお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラウ＿ふつう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラウ＿えがお</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1843,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F01C662-F8EE-4F4D-8BA4-293CEF11D3ED}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2429,22 +2567,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144242F6-F118-4F2F-A456-29EE4170FA05}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="70.875" customWidth="1"/>
+    <col min="3" max="3" width="58.125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2455,36 +2594,253 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41524BB0-EB50-46C4-A074-3EA1998BC037}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="48.25" customWidth="1"/>
+    <col min="2" max="2" width="60.5" customWidth="1"/>
     <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
@@ -2492,7 +2848,7 @@
     <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2503,16 +2859,162 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
